--- a/accessdb/templateSheets/03defFamSheet.xlsx
+++ b/accessdb/templateSheets/03defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF76AA-D113-4FC3-B5B5-638F507D23F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8950791-6688-497E-9CCB-7C4B6365F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">ഈ സഭയുടെ അംഗമായി തുടരുവാന്‍  ആരംഭിച്ചത് എന്നു മുതല്‍ </t>
   </si>
   <si>
-    <t xml:space="preserve">ഈ സഭയുടെ അംഗമായിരിക്കെ തുടര്‍ച്ചായി മറ്റു സഭകളില്‍ കൂടേണ്ടി വരുന്നുവെങ്കില്‍ ആ സഭയുടെ പേര്, എന്നു മുതല്‍ </t>
-  </si>
-  <si>
     <t xml:space="preserve">ഇതോടൊപ്പം തെളിവിനായി സമര്‍പ്പിച്ചിട്ടുള്ള രേഖകളുടെ കോപ്പികള്‍ </t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>പാസ്പോർട്ട് ഫോട്ടോ</t>
+  </si>
+  <si>
+    <t>ഈ സഭയുടെ അംഗമായിരിക്കെ തുടര്‍ച്ചായി മറ്റു സഭകളില്‍ കൂടേണ്ടി വരുന്നുവെങ്കില്‍ ആ സഭയുടെ പേര്, എന്നു മുതല്‍</t>
   </si>
 </sst>
 </file>
@@ -1385,9 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:E47"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1429,13 +1427,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,7 +1615,7 @@
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1728,7 +1726,7 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -1810,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -1819,7 +1817,7 @@
     <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -1828,7 +1826,7 @@
     <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -1837,7 +1835,7 @@
     <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -1846,7 +1844,7 @@
     <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -1855,7 +1853,7 @@
     <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -1866,7 +1864,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -1877,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -1892,7 +1890,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1906,7 +1904,7 @@
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
@@ -1915,7 +1913,7 @@
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
@@ -1924,7 +1922,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -1933,7 +1931,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>

--- a/accessdb/templateSheets/03defFamSheet.xlsx
+++ b/accessdb/templateSheets/03defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8950791-6688-497E-9CCB-7C4B6365F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F04AE-8E96-4FA3-B1EE-87E815A63810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -328,12 +328,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -358,6 +352,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +381,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -389,7 +395,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -403,7 +409,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1385,7 +1391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="C6:E48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1399,19 +1407,19 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="27"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="27"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="27"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1420,19 +1428,19 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1443,9 +1451,9 @@
       <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -1454,9 +1462,9 @@
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -1465,9 +1473,9 @@
       <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -1476,9 +1484,9 @@
       <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -1487,9 +1495,9 @@
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1498,9 +1506,9 @@
       <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -1509,9 +1517,9 @@
       <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1520,9 +1528,9 @@
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -1531,9 +1539,9 @@
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -1542,9 +1550,9 @@
       <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -1553,9 +1561,9 @@
       <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -1564,9 +1572,9 @@
       <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -1575,9 +1583,9 @@
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -1586,9 +1594,9 @@
       <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -1597,9 +1605,9 @@
       <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -1608,72 +1616,72 @@
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
@@ -1682,20 +1690,20 @@
       <c r="B29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
@@ -1704,171 +1712,171 @@
       <c r="B31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>22</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>23</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>24</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>25</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>26</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>27</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>28</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
@@ -1877,9 +1885,9 @@
       <c r="B48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1889,7 +1897,7 @@
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="6"/>
@@ -1897,13 +1905,13 @@
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="1"/>
@@ -1912,7 +1920,7 @@
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="1"/>
@@ -1921,7 +1929,7 @@
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="8"/>
@@ -1930,14 +1938,14 @@
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="13"/>
